--- a/เช็คชื่อ/[2021-08-02] เอกสารเช็คชื่อ.xlsx
+++ b/เช็คชื่อ/[2021-08-02] เอกสารเช็คชื่อ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\เช็คชื่อ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F16C9D-FEE3-4D8A-9595-48D68A01C4D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D55AF52-54B5-4550-BC9B-C78FAEABCED2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10980" yWindow="2295" windowWidth="17280" windowHeight="9030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="35">
   <si>
     <t>ทีม 4</t>
   </si>
@@ -480,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E342"/>
+  <dimension ref="A1:E354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A315" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F334" sqref="F334"/>
+    <sheetView tabSelected="1" topLeftCell="A341" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D350" sqref="D350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5116,6 +5116,173 @@
         <v>1</v>
       </c>
     </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B343" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>1</v>
+      </c>
+      <c r="B344" t="s">
+        <v>6</v>
+      </c>
+      <c r="C344" s="2">
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="E344" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>2</v>
+      </c>
+      <c r="B345" t="s">
+        <v>7</v>
+      </c>
+      <c r="C345" s="2">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="E345" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>3</v>
+      </c>
+      <c r="B346" t="s">
+        <v>15</v>
+      </c>
+      <c r="C346" s="2">
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="E346" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>4</v>
+      </c>
+      <c r="B347" t="s">
+        <v>8</v>
+      </c>
+      <c r="C347" s="2">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="E347" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>5</v>
+      </c>
+      <c r="B348" t="s">
+        <v>16</v>
+      </c>
+      <c r="C348" s="2">
+        <v>0.8354166666666667</v>
+      </c>
+      <c r="E348" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>6</v>
+      </c>
+      <c r="B349" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C349" s="2">
+        <v>0.82916666666666661</v>
+      </c>
+      <c r="D349" s="9"/>
+      <c r="E349" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>7</v>
+      </c>
+      <c r="B350" t="s">
+        <v>10</v>
+      </c>
+      <c r="C350" s="2">
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="E350" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>8</v>
+      </c>
+      <c r="B351" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C351" s="10">
+        <v>0.83263888888888893</v>
+      </c>
+      <c r="D351" s="9"/>
+      <c r="E351" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>9</v>
+      </c>
+      <c r="B352" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C352" s="10">
+        <v>0.83263888888888893</v>
+      </c>
+      <c r="D352" s="10"/>
+      <c r="E352" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>10</v>
+      </c>
+      <c r="B353" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C353" s="2">
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="D353" s="9"/>
+      <c r="E353" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>11</v>
+      </c>
+      <c r="B354" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C354" s="2">
+        <v>0.8354166666666667</v>
+      </c>
+      <c r="D354" s="9"/>
+      <c r="E354" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
